--- a/src/main/resources/dekanat.xlsx
+++ b/src/main/resources/dekanat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Список участников/веток</t>
   </si>
@@ -132,110 +132,455 @@
     <t>MBA 25</t>
   </si>
   <si>
-    <t>Белов Павел Онрпаджв</t>
-  </si>
-  <si>
-    <t>Ражев Максим Онрпаджв</t>
-  </si>
-  <si>
-    <t>Шашанов Михаил Онрпаджв</t>
-  </si>
-  <si>
-    <t>Алексеева Виктория Онрпаджв</t>
-  </si>
-  <si>
-    <t>Еськов Михаил Онрпаджв</t>
-  </si>
-  <si>
-    <t>Пономарев Иван Онрпаджв</t>
-  </si>
-  <si>
-    <t>Хохлов Алексей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Чагунин Александр Онрпаджв</t>
-  </si>
-  <si>
-    <t>Новиков Михаил Онрпаджв</t>
-  </si>
-  <si>
-    <t>Кузнецов Александр Онрпаджв</t>
-  </si>
-  <si>
-    <t>Самко Ирина Онрпаджв</t>
-  </si>
-  <si>
-    <t>Виноградов Владимир Онрпаджв</t>
-  </si>
-  <si>
-    <t>Винокуров Сергей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Мольков Андрей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Дорн Артур Онрпаджв</t>
-  </si>
-  <si>
-    <t>Перевезенцев Артемий Онрпаджв</t>
-  </si>
-  <si>
-    <t>Котрикова Ксения Онрпаджв</t>
-  </si>
-  <si>
-    <t>Голобородько Алексей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Хвостов Андрей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Немцев Станислав Онрпаджв</t>
-  </si>
-  <si>
-    <t>Мартьянов Андрей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Самсонов Артемий Онрпаджв</t>
-  </si>
-  <si>
-    <t>Миронова Екатерина Онрпаджв</t>
-  </si>
-  <si>
-    <t>Королева Вероника Онрпаджв</t>
-  </si>
-  <si>
-    <t>Тюльканов Игорь Онрпаджв</t>
-  </si>
-  <si>
-    <t>Политов Александр Онрпаджв</t>
-  </si>
-  <si>
-    <t>Перепелкин Сергей Онрпаджв</t>
-  </si>
-  <si>
-    <t>Дамбинова Ирина Онрпаджв</t>
-  </si>
-  <si>
-    <t>Тимофеев Вадим Онрпаджв</t>
-  </si>
-  <si>
-    <t>Комаров Николай Онрпаджв</t>
-  </si>
-  <si>
-    <t>Лукина Ольга Онрпаджв</t>
-  </si>
-  <si>
-    <t>Морозов Денис Онрпаджв</t>
-  </si>
-  <si>
-    <t>Королева Анна Онрпаджв</t>
+    <t>Варенников Капитон Брониславович </t>
+  </si>
+  <si>
+    <t>Королёва Кристина Родионовна </t>
+  </si>
+  <si>
+    <t>Бранта Анисья Яновна </t>
+  </si>
+  <si>
+    <t>Янсона Рада Станиславовна </t>
+  </si>
+  <si>
+    <t>Ягубов Ефрем Демьянович </t>
+  </si>
+  <si>
+    <t>Пьянкова Елизавета Марковна </t>
+  </si>
+  <si>
+    <t>Толстой Юлия Андрияновна </t>
+  </si>
+  <si>
+    <t>Азаров Юрий Никанорович </t>
+  </si>
+  <si>
+    <t>Енотина Альбина Филипповна </t>
+  </si>
+  <si>
+    <t>Берестова Фаина Брониславовна </t>
+  </si>
+  <si>
+    <t>Задкова Марфа Степановна </t>
+  </si>
+  <si>
+    <t>Петрова Татьяна Виталиевна </t>
+  </si>
+  <si>
+    <t>Касьяненко Лиана Несторовна </t>
+  </si>
+  <si>
+    <t>Мышелов Трофим Ермолаевич </t>
+  </si>
+  <si>
+    <t>Бабыкин Емельян Епифанович </t>
+  </si>
+  <si>
+    <t>Дудинова Ефросиния Данилевна </t>
+  </si>
+  <si>
+    <t>Аргамакова Галина Елизаровна </t>
+  </si>
+  <si>
+    <t>Щеголихин Потап Леонидович </t>
+  </si>
+  <si>
+    <t>Витюгов Кондрат Андреевич </t>
+  </si>
+  <si>
+    <t>Шмагин Андрон Семенович </t>
+  </si>
+  <si>
+    <t>Кобяков Модест Ипполитович </t>
+  </si>
+  <si>
+    <t>Салтанова Полина Марковна </t>
+  </si>
+  <si>
+    <t>Куанышбаева Мария Станиславовна </t>
+  </si>
+  <si>
+    <t>Степанова Пелагея Ираклиевна </t>
+  </si>
+  <si>
+    <t>Жиленкова Ника Антониновна </t>
+  </si>
+  <si>
+    <t>Актжанова Тамара Василиевна </t>
+  </si>
+  <si>
+    <t>Полищук Артём Левович </t>
+  </si>
+  <si>
+    <t>Коршикова Изольда Алексеевна </t>
+  </si>
+  <si>
+    <t>Слукина Рената Степановна </t>
+  </si>
+  <si>
+    <t>Казанькова Лариса Феликсовна </t>
+  </si>
+  <si>
+    <t>Невшупа Кира Тихоновна </t>
+  </si>
+  <si>
+    <t>Косомова Розалия Ефимовна </t>
+  </si>
+  <si>
+    <t>Никольникова Майя Ефимовна </t>
+  </si>
+  <si>
+    <t>Лебединцев Александр Евгениевич </t>
+  </si>
+  <si>
+    <t>Худякова Римма Феликсовна </t>
+  </si>
+  <si>
+    <t>Илюшкин Виталий Александрович </t>
+  </si>
+  <si>
+    <t>Соломинцева Анастасия Филипповна </t>
+  </si>
+  <si>
+    <t>Добронравов Николай Фомевич </t>
+  </si>
+  <si>
+    <t>Прудников Вадим Кондратович </t>
+  </si>
+  <si>
+    <t>Чужинова Ангелина Марковна </t>
+  </si>
+  <si>
+    <t>Михайлова Наталья Андрияновна </t>
+  </si>
+  <si>
+    <t>Чежеков Андрон Александрович </t>
+  </si>
+  <si>
+    <t>Карпенцев Олег Левович </t>
+  </si>
+  <si>
+    <t>Горчаков Константин Натанович </t>
+  </si>
+  <si>
+    <t>Глаголев Данила Дмитриевич </t>
+  </si>
+  <si>
+    <t>Жиленкова Алина Ефимовна </t>
+  </si>
+  <si>
+    <t>Усоев Пахом Натанович </t>
+  </si>
+  <si>
+    <t>Молчанова Тамара Ильевна </t>
+  </si>
+  <si>
+    <t>Пшеничникова Ксения Василиевна </t>
+  </si>
+  <si>
+    <t>Новокшонов Кондрат Никонович </t>
+  </si>
+  <si>
+    <t>Гнусарев Артур Тихонович </t>
+  </si>
+  <si>
+    <t>Набокин Юлиан Куприянович </t>
+  </si>
+  <si>
+    <t>Церетели Евгения Константиновна </t>
+  </si>
+  <si>
+    <t>Ветров Кондратий Эмилевич </t>
+  </si>
+  <si>
+    <t>Лопатина Светлана Игоревна </t>
+  </si>
+  <si>
+    <t>Васильева Елизавета Леонидовна </t>
+  </si>
+  <si>
+    <t>Бруевич Матвей Никифорович </t>
+  </si>
+  <si>
+    <t>Саянкова Роза Яновна </t>
+  </si>
+  <si>
+    <t>Бебнев Фока Захарович </t>
+  </si>
+  <si>
+    <t>Гершельмана Светлана Василиевна </t>
+  </si>
+  <si>
+    <t>Попов Марк Никонович </t>
+  </si>
+  <si>
+    <t>Бебнева Валерия Карповна </t>
+  </si>
+  <si>
+    <t>Елисеева Екатерина Владиленовна </t>
+  </si>
+  <si>
+    <t>Летавина Бронислава Фомевна </t>
+  </si>
+  <si>
+    <t>Тучков Архип Касьянович </t>
+  </si>
+  <si>
+    <t>Аверин Рубен Георгиевич </t>
+  </si>
+  <si>
+    <t>Лесков Капитон Несторович </t>
+  </si>
+  <si>
+    <t>Косоруков Роман Григориевич </t>
+  </si>
+  <si>
+    <t>Толкачёва Вероника Николаевна </t>
+  </si>
+  <si>
+    <t>Остапчук Родион Алексеевич </t>
+  </si>
+  <si>
+    <t>Канадцева Кристина Ивановна </t>
+  </si>
+  <si>
+    <t>Рябоконь Игорь Глебович </t>
+  </si>
+  <si>
+    <t>Гаранин Мир Трофимович </t>
+  </si>
+  <si>
+    <t>Дубровин Лаврентий Сократович </t>
+  </si>
+  <si>
+    <t>Столярова Ульяна Серафимовна </t>
+  </si>
+  <si>
+    <t>Балашова Жанна Станиславовна </t>
+  </si>
+  <si>
+    <t>Шуста Адам Филиппович </t>
+  </si>
+  <si>
+    <t>Чиркаш Карл Сидорович </t>
+  </si>
+  <si>
+    <t>Мятлев Макар Захарович </t>
+  </si>
+  <si>
+    <t>Бобриков Герасим Данилевич </t>
+  </si>
+  <si>
+    <t>Голумбовский Артем Филиппович </t>
+  </si>
+  <si>
+    <t>Арнаутова Христина Вячеславовна </t>
+  </si>
+  <si>
+    <t>Толбаева Алла Михеевна </t>
+  </si>
+  <si>
+    <t>Вавилов Никита Анатолиевич </t>
+  </si>
+  <si>
+    <t>Нырцева Василиса Потаповна </t>
+  </si>
+  <si>
+    <t>Хохорина Владислава Марковна </t>
+  </si>
+  <si>
+    <t>Веденина Светлана Игоревна </t>
+  </si>
+  <si>
+    <t>Лясковец Артем Викентиевич </t>
+  </si>
+  <si>
+    <t>Карманова Владлена Анатолиевна </t>
+  </si>
+  <si>
+    <t>Никулаичев Вячеслав Карлович </t>
+  </si>
+  <si>
+    <t>b34</t>
+  </si>
+  <si>
+    <t>b35</t>
+  </si>
+  <si>
+    <t>b36</t>
+  </si>
+  <si>
+    <t>b37</t>
+  </si>
+  <si>
+    <t>b38</t>
+  </si>
+  <si>
+    <t>b39</t>
+  </si>
+  <si>
+    <t>b40</t>
+  </si>
+  <si>
+    <t>b41</t>
+  </si>
+  <si>
+    <t>b42</t>
+  </si>
+  <si>
+    <t>b43</t>
+  </si>
+  <si>
+    <t>b44</t>
+  </si>
+  <si>
+    <t>b45</t>
+  </si>
+  <si>
+    <t>b46</t>
+  </si>
+  <si>
+    <t>b47</t>
+  </si>
+  <si>
+    <t>b48</t>
+  </si>
+  <si>
+    <t>b49</t>
+  </si>
+  <si>
+    <t>b50</t>
+  </si>
+  <si>
+    <t>b51</t>
+  </si>
+  <si>
+    <t>b52</t>
+  </si>
+  <si>
+    <t>b53</t>
+  </si>
+  <si>
+    <t>b54</t>
+  </si>
+  <si>
+    <t>b55</t>
+  </si>
+  <si>
+    <t>b56</t>
+  </si>
+  <si>
+    <t>b57</t>
+  </si>
+  <si>
+    <t>b58</t>
+  </si>
+  <si>
+    <t>b59</t>
+  </si>
+  <si>
+    <t>b60</t>
+  </si>
+  <si>
+    <t>b61</t>
+  </si>
+  <si>
+    <t>b62</t>
+  </si>
+  <si>
+    <t>b63</t>
+  </si>
+  <si>
+    <t>b64</t>
+  </si>
+  <si>
+    <t>b65</t>
+  </si>
+  <si>
+    <t>b66</t>
+  </si>
+  <si>
+    <t>b67</t>
+  </si>
+  <si>
+    <t>b68</t>
+  </si>
+  <si>
+    <t>b69</t>
+  </si>
+  <si>
+    <t>b70</t>
+  </si>
+  <si>
+    <t>b71</t>
+  </si>
+  <si>
+    <t>b72</t>
+  </si>
+  <si>
+    <t>b73</t>
+  </si>
+  <si>
+    <t>b74</t>
+  </si>
+  <si>
+    <t>b75</t>
+  </si>
+  <si>
+    <t>b76</t>
+  </si>
+  <si>
+    <t>b77</t>
+  </si>
+  <si>
+    <t>b78</t>
+  </si>
+  <si>
+    <t>b79</t>
+  </si>
+  <si>
+    <t>b80</t>
+  </si>
+  <si>
+    <t>b81</t>
+  </si>
+  <si>
+    <t>b82</t>
+  </si>
+  <si>
+    <t>b83</t>
+  </si>
+  <si>
+    <t>b84</t>
+  </si>
+  <si>
+    <t>b85</t>
+  </si>
+  <si>
+    <t>b86</t>
+  </si>
+  <si>
+    <t>b87</t>
+  </si>
+  <si>
+    <t>b88</t>
+  </si>
+  <si>
+    <t>b89</t>
+  </si>
+  <si>
+    <t>b90</t>
+  </si>
+  <si>
+    <t>MBA 26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,13 +588,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,8 +621,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -567,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +1100,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -750,7 +1108,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -758,7 +1116,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -766,7 +1124,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -774,7 +1132,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -782,7 +1140,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -790,7 +1148,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -798,7 +1156,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -806,7 +1164,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -814,7 +1172,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -822,7 +1180,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -830,7 +1188,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -841,28 +1199,489 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -875,11 +1694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
